--- a/hr_dashboard/Dashboard Hr.xlsx
+++ b/hr_dashboard/Dashboard Hr.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nkmanithia\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\excel_dashbaord\hr_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11460" windowHeight="6456" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11460" windowHeight="6456"/>
   </bookViews>
   <sheets>
     <sheet name="Hr" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <customWorkbookView name="Filter 1" guid="{54D5C940-CC4C-4E09-9395-18AB0F3723F5}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3328" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3319" uniqueCount="337">
   <si>
     <t>EmpID</t>
   </si>
@@ -1039,6 +1039,24 @@
   <si>
     <t>Average of HourlyRate</t>
   </si>
+  <si>
+    <t>stu</t>
+  </si>
+  <si>
+    <t>stu_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name </t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>tech_id</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
 </sst>
 </file>
 
@@ -1997,11 +2015,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="478149456"/>
-        <c:axId val="478148280"/>
+        <c:axId val="407763096"/>
+        <c:axId val="407760744"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="478148280"/>
+        <c:axId val="407760744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2064,11 +2082,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478149456"/>
+        <c:crossAx val="407763096"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="478149456"/>
+        <c:axId val="407763096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2111,7 +2130,8 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478148280"/>
+        <c:crossAx val="407760744"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2350,7 +2370,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2387,9 +2406,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -2521,7 +2538,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2585,12 +2601,12 @@
         </c:dLbls>
         <c:gapWidth val="65"/>
         <c:shape val="box"/>
-        <c:axId val="340374624"/>
-        <c:axId val="340373056"/>
+        <c:axId val="124833840"/>
+        <c:axId val="124835016"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="340374624"/>
+        <c:axId val="124833840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2633,7 +2649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340373056"/>
+        <c:crossAx val="124835016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2641,7 +2657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="340373056"/>
+        <c:axId val="124835016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2692,7 +2708,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340374624"/>
+        <c:crossAx val="124833840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3350,12 +3366,12 @@
         </c:dLbls>
         <c:gapWidth val="65"/>
         <c:shape val="box"/>
-        <c:axId val="340375800"/>
-        <c:axId val="340371096"/>
+        <c:axId val="339412368"/>
+        <c:axId val="414290360"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="340375800"/>
+        <c:axId val="339412368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3461,7 +3477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340371096"/>
+        <c:crossAx val="414290360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3469,7 +3485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="340371096"/>
+        <c:axId val="414290360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3588,7 +3604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340375800"/>
+        <c:crossAx val="339412368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4216,7 +4232,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4251,9 +4266,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -4552,11 +4565,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="340368744"/>
-        <c:axId val="340371488"/>
+        <c:axId val="414291928"/>
+        <c:axId val="414296240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="340368744"/>
+        <c:axId val="414291928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4599,7 +4612,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340371488"/>
+        <c:crossAx val="414296240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4607,7 +4620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="340371488"/>
+        <c:axId val="414296240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4670,7 +4683,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340368744"/>
+        <c:crossAx val="414291928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4838,7 +4851,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5045,7 +5057,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5082,9 +5093,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -5165,7 +5174,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5228,11 +5236,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="339381072"/>
-        <c:axId val="339381456"/>
+        <c:axId val="407762704"/>
+        <c:axId val="407765448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="339381072"/>
+        <c:axId val="407762704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5275,7 +5283,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339381456"/>
+        <c:crossAx val="407765448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5283,7 +5291,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="339381456"/>
+        <c:axId val="407765448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5334,7 +5342,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339381072"/>
+        <c:crossAx val="407762704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5457,7 +5465,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6272,12 +6279,12 @@
         </c:dLbls>
         <c:gapWidth val="65"/>
         <c:shape val="box"/>
-        <c:axId val="339501920"/>
-        <c:axId val="339621328"/>
+        <c:axId val="407767408"/>
+        <c:axId val="407767800"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="339501920"/>
+        <c:axId val="407767408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6383,7 +6390,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339621328"/>
+        <c:crossAx val="407767800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6391,7 +6398,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="339621328"/>
+        <c:axId val="407767800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6510,7 +6517,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339501920"/>
+        <c:crossAx val="407767408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7939,7 +7946,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -7974,9 +7980,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -8003,7 +8007,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -8038,9 +8041,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -8190,7 +8191,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8324,7 +8324,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8400,11 +8399,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="339628456"/>
-        <c:axId val="340359360"/>
+        <c:axId val="124834232"/>
+        <c:axId val="124834624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="339628456"/>
+        <c:axId val="124834232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8447,7 +8446,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340359360"/>
+        <c:crossAx val="124834624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8455,7 +8454,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="340359360"/>
+        <c:axId val="124834624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8518,7 +8517,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339628456"/>
+        <c:crossAx val="124834232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8904,7 +8903,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -8939,9 +8937,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -9030,7 +9026,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9148,11 +9143,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="340088240"/>
-        <c:axId val="340369136"/>
+        <c:axId val="124836584"/>
+        <c:axId val="124838936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="340088240"/>
+        <c:axId val="124836584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9184,7 +9179,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9251,7 +9245,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340369136"/>
+        <c:crossAx val="124838936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9259,7 +9253,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="340369136"/>
+        <c:axId val="124838936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9322,7 +9316,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9356,7 +9349,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="340088240"/>
+        <c:crossAx val="124836584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10275,11 +10268,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="340373840"/>
-        <c:axId val="340369920"/>
+        <c:axId val="124838152"/>
+        <c:axId val="124836192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="340373840"/>
+        <c:axId val="124838152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10378,7 +10371,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340369920"/>
+        <c:crossAx val="124836192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10386,7 +10379,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="340369920"/>
+        <c:axId val="124836192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10483,7 +10476,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="340373840"/>
+        <c:crossAx val="124838152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10655,8 +10648,7 @@
           <a:sp3d/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -19105,8 +19097,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="11" name="Department"/>
@@ -19123,7 +19115,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -19239,8 +19231,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="14" name="JobRole"/>
@@ -19257,7 +19249,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -19311,8 +19303,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>144781</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="15" name="Gender"/>
@@ -19329,7 +19321,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -30571,7 +30563,131 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="29">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="Q1:R5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="42">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="6"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of MonthlyIncome" fld="24" subtotal="average" baseField="9" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="29">
   <location ref="J1:K5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="42">
     <pivotField dataField="1" showAll="0"/>
@@ -30845,8 +30961,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable14" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="H19:I32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="42">
     <pivotField dataField="1" showAll="0"/>
@@ -31012,8 +31128,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A36:C42" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="42">
     <pivotField showAll="0"/>
@@ -31188,8 +31304,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="E2:F5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="42">
     <pivotField showAll="0"/>
@@ -31357,8 +31473,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A14:F19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="42">
     <pivotField dataField="1" showAll="0"/>
@@ -31584,130 +31700,6 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="Q1:R5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="42">
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="9">
-        <item x="6"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of MonthlyIncome" fld="24" subtotal="average" baseField="9" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32061,9 +32053,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP1000"/>
+  <dimension ref="A1:BE1000"/>
   <sheetViews>
-    <sheetView topLeftCell="AH221" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AX21" sqref="AX21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -32111,7 +32105,7 @@
     <col min="42" max="42" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32239,7 +32233,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
@@ -32276,12 +32270,6 @@
       <c r="L2" s="2">
         <v>3</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1</v>
-      </c>
       <c r="O2" s="2">
         <v>405</v>
       </c>
@@ -32367,7 +32355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>55</v>
       </c>
@@ -32404,12 +32392,6 @@
       <c r="L3" s="5">
         <v>3</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" s="5">
-        <v>1</v>
-      </c>
       <c r="O3" s="5">
         <v>411</v>
       </c>
@@ -32495,7 +32477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
@@ -32532,12 +32514,6 @@
       <c r="L4" s="2">
         <v>3</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
       <c r="O4" s="2">
         <v>614</v>
       </c>
@@ -32622,8 +32598,11 @@
       <c r="AP4" s="2">
         <v>0</v>
       </c>
+      <c r="AV4" t="s">
+        <v>336</v>
+      </c>
     </row>
-    <row r="5" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>64</v>
       </c>
@@ -32660,12 +32639,6 @@
       <c r="L5" s="5">
         <v>2</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="5">
-        <v>1</v>
-      </c>
       <c r="O5" s="5">
         <v>1012</v>
       </c>
@@ -32750,8 +32723,13 @@
       <c r="AP5" s="5">
         <v>0</v>
       </c>
+      <c r="AZ5" t="s">
+        <v>336</v>
+      </c>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
     </row>
-    <row r="6" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>67</v>
       </c>
@@ -32788,12 +32766,6 @@
       <c r="L6" s="2">
         <v>1</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1</v>
-      </c>
       <c r="O6" s="2">
         <v>1156</v>
       </c>
@@ -32878,8 +32850,16 @@
       <c r="AP6" s="2">
         <v>0</v>
       </c>
+      <c r="AV6" t="s">
+        <v>331</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>334</v>
+      </c>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="5"/>
     </row>
-    <row r="7" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>68</v>
       </c>
@@ -32916,12 +32896,6 @@
       <c r="L7" s="5">
         <v>3</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="5">
-        <v>1</v>
-      </c>
       <c r="O7" s="5">
         <v>1368</v>
       </c>
@@ -33006,8 +32980,24 @@
       <c r="AP7" s="5">
         <v>0</v>
       </c>
+      <c r="AV7" t="s">
+        <v>332</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>333</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>335</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>335</v>
+      </c>
+      <c r="BA7" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="BB7" s="2"/>
     </row>
-    <row r="8" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>69</v>
       </c>
@@ -33044,12 +33034,6 @@
       <c r="L8" s="2">
         <v>2</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N8" s="2">
-        <v>1</v>
-      </c>
       <c r="O8" s="2">
         <v>1624</v>
       </c>
@@ -33134,8 +33118,19 @@
       <c r="AP8" s="2">
         <v>0</v>
       </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AX8">
+        <v>101</v>
+      </c>
+      <c r="AZ8">
+        <v>101</v>
+      </c>
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="5"/>
     </row>
-    <row r="9" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -33172,12 +33167,6 @@
       <c r="L9" s="5">
         <v>3</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N9" s="5">
-        <v>1</v>
-      </c>
       <c r="O9" s="5">
         <v>1839</v>
       </c>
@@ -33262,8 +33251,19 @@
       <c r="AP9" s="5">
         <v>0</v>
       </c>
+      <c r="AV9">
+        <v>2</v>
+      </c>
+      <c r="AX9">
+        <v>101</v>
+      </c>
+      <c r="AZ9">
+        <v>12</v>
+      </c>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
     </row>
-    <row r="10" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>71</v>
       </c>
@@ -33300,12 +33300,6 @@
       <c r="L10" s="2">
         <v>1</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N10" s="2">
-        <v>1</v>
-      </c>
       <c r="O10" s="2">
         <v>167</v>
       </c>
@@ -33390,8 +33384,19 @@
       <c r="AP10" s="2">
         <v>0</v>
       </c>
+      <c r="AV10">
+        <v>3</v>
+      </c>
+      <c r="AX10">
+        <v>101</v>
+      </c>
+      <c r="AZ10">
+        <v>103</v>
+      </c>
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="5"/>
     </row>
-    <row r="11" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>72</v>
       </c>
@@ -33428,12 +33433,6 @@
       <c r="L11" s="5">
         <v>1</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="5">
-        <v>1</v>
-      </c>
       <c r="O11" s="5">
         <v>201</v>
       </c>
@@ -33518,8 +33517,20 @@
       <c r="AP11" s="5">
         <v>0</v>
       </c>
+      <c r="AV11">
+        <v>4</v>
+      </c>
+      <c r="AX11">
+        <v>101</v>
+      </c>
+      <c r="AZ11">
+        <v>74</v>
+      </c>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BE11" s="2"/>
     </row>
-    <row r="12" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>73</v>
       </c>
@@ -33556,12 +33567,6 @@
       <c r="L12" s="2">
         <v>1</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N12" s="2">
-        <v>1</v>
-      </c>
       <c r="O12" s="2">
         <v>235</v>
       </c>
@@ -33646,8 +33651,20 @@
       <c r="AP12" s="2">
         <v>0</v>
       </c>
+      <c r="AV12">
+        <v>5</v>
+      </c>
+      <c r="AX12">
+        <v>77</v>
+      </c>
+      <c r="AZ12">
+        <v>75</v>
+      </c>
+      <c r="BA12" s="5"/>
+      <c r="BB12" s="5"/>
+      <c r="BE12" s="5"/>
     </row>
-    <row r="13" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>75</v>
       </c>
@@ -33684,12 +33701,6 @@
       <c r="L13" s="5">
         <v>3</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" s="5">
-        <v>1</v>
-      </c>
       <c r="O13" s="5">
         <v>243</v>
       </c>
@@ -33774,8 +33785,20 @@
       <c r="AP13" s="5">
         <v>0</v>
       </c>
+      <c r="AV13">
+        <v>6</v>
+      </c>
+      <c r="AX13">
+        <v>77</v>
+      </c>
+      <c r="AZ13">
+        <v>76</v>
+      </c>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BE13" s="2"/>
     </row>
-    <row r="14" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>76</v>
       </c>
@@ -33812,12 +33835,6 @@
       <c r="L14" s="2">
         <v>2</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N14" s="2">
-        <v>1</v>
-      </c>
       <c r="O14" s="2">
         <v>566</v>
       </c>
@@ -33902,8 +33919,20 @@
       <c r="AP14" s="2">
         <v>0</v>
       </c>
+      <c r="AV14">
+        <v>7</v>
+      </c>
+      <c r="AX14">
+        <v>77</v>
+      </c>
+      <c r="AZ14">
+        <v>76.999999999999901</v>
+      </c>
+      <c r="BA14" s="5"/>
+      <c r="BB14" s="5"/>
+      <c r="BE14" s="2"/>
     </row>
-    <row r="15" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>78</v>
       </c>
@@ -33940,12 +33969,6 @@
       <c r="L15" s="5">
         <v>3</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="N15" s="5">
-        <v>1</v>
-      </c>
       <c r="O15" s="5">
         <v>959</v>
       </c>
@@ -34030,8 +34053,20 @@
       <c r="AP15" s="5">
         <v>0</v>
       </c>
+      <c r="AV15">
+        <v>8</v>
+      </c>
+      <c r="AX15">
+        <v>77</v>
+      </c>
+      <c r="AZ15">
+        <v>77.999999999999901</v>
+      </c>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BE15" s="5"/>
     </row>
-    <row r="16" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>80</v>
       </c>
@@ -34068,12 +34103,6 @@
       <c r="L16" s="2">
         <v>2</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="2">
-        <v>1</v>
-      </c>
       <c r="O16" s="2">
         <v>1193</v>
       </c>
@@ -34158,8 +34187,19 @@
       <c r="AP16" s="2">
         <v>0</v>
       </c>
+      <c r="AV16">
+        <v>9</v>
+      </c>
+      <c r="AX16">
+        <v>77</v>
+      </c>
+      <c r="AZ16">
+        <v>78.999999999999901</v>
+      </c>
+      <c r="BA16" s="5"/>
+      <c r="BB16" s="5"/>
     </row>
-    <row r="17" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:54" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>81</v>
       </c>
@@ -34196,12 +34236,6 @@
       <c r="L17" s="5">
         <v>3</v>
       </c>
-      <c r="M17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N17" s="5">
-        <v>1</v>
-      </c>
       <c r="O17" s="5">
         <v>1248</v>
       </c>
@@ -34286,8 +34320,19 @@
       <c r="AP17" s="5">
         <v>0</v>
       </c>
+      <c r="AV17">
+        <v>10</v>
+      </c>
+      <c r="AX17">
+        <v>77</v>
+      </c>
+      <c r="AZ17">
+        <v>79.999999999999901</v>
+      </c>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2"/>
     </row>
-    <row r="18" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:54" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>82</v>
       </c>
@@ -34324,12 +34369,6 @@
       <c r="L18" s="2">
         <v>3</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N18" s="2">
-        <v>1</v>
-      </c>
       <c r="O18" s="2">
         <v>1269</v>
       </c>
@@ -34414,8 +34453,19 @@
       <c r="AP18" s="2">
         <v>1</v>
       </c>
+      <c r="AV18">
+        <v>11</v>
+      </c>
+      <c r="AX18">
+        <v>77</v>
+      </c>
+      <c r="AZ18">
+        <v>80.999999999999901</v>
+      </c>
+      <c r="BA18" s="5"/>
+      <c r="BB18" s="5"/>
     </row>
-    <row r="19" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:54" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>83</v>
       </c>
@@ -34452,12 +34502,6 @@
       <c r="L19" s="5">
         <v>3</v>
       </c>
-      <c r="M19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="5">
-        <v>1</v>
-      </c>
       <c r="O19" s="5">
         <v>137</v>
       </c>
@@ -34542,8 +34586,19 @@
       <c r="AP19" s="5">
         <v>0</v>
       </c>
+      <c r="AV19">
+        <v>12</v>
+      </c>
+      <c r="AX19">
+        <v>81</v>
+      </c>
+      <c r="AZ19">
+        <v>81.999999999999901</v>
+      </c>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
     </row>
-    <row r="20" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:54" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>84</v>
       </c>
@@ -34670,8 +34725,19 @@
       <c r="AP20" s="2">
         <v>0</v>
       </c>
+      <c r="AV20">
+        <v>13</v>
+      </c>
+      <c r="AX20">
+        <v>81</v>
+      </c>
+      <c r="AZ20">
+        <v>82.999999999999901</v>
+      </c>
+      <c r="BA20" s="5"/>
+      <c r="BB20" s="5"/>
     </row>
-    <row r="21" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:54" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>85</v>
       </c>
@@ -34798,8 +34864,16 @@
       <c r="AP21" s="5">
         <v>1</v>
       </c>
+      <c r="AV21">
+        <v>14</v>
+      </c>
+      <c r="AZ21">
+        <v>83.999999999999801</v>
+      </c>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2"/>
     </row>
-    <row r="22" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:54" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>86</v>
       </c>
@@ -34926,8 +35000,13 @@
       <c r="AP22" s="2">
         <v>2</v>
       </c>
+      <c r="AZ22">
+        <v>84.999999999999801</v>
+      </c>
+      <c r="BA22" s="5"/>
+      <c r="BB22" s="5"/>
     </row>
-    <row r="23" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:54" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>87</v>
       </c>
@@ -35055,7 +35134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>88</v>
       </c>
@@ -35183,7 +35262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>89</v>
       </c>
@@ -35311,7 +35390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>90</v>
       </c>
@@ -35439,7 +35518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>91</v>
       </c>
@@ -35567,7 +35646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>92</v>
       </c>
@@ -35695,7 +35774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>93</v>
       </c>
@@ -35823,7 +35902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>94</v>
       </c>
@@ -35949,7 +36028,7 @@
       </c>
       <c r="AP30" s="6"/>
     </row>
-    <row r="31" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>95</v>
       </c>
@@ -36077,7 +36156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>96</v>
       </c>
@@ -65000,8 +65079,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="K8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -65025,7 +65104,7 @@
   </sheetPr>
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
